--- a/ES calc/Descriptive coding scheme for group-based interventions (data) MHV 2.xlsx
+++ b/ES calc/Descriptive coding scheme for group-based interventions (data) MHV 2.xlsx
@@ -255,9 +255,6 @@
     <t>eppi_id</t>
   </si>
   <si>
-    <t>Wuthrich et al.</t>
-  </si>
-  <si>
     <t>Wuthrich &amp; Rapee</t>
   </si>
   <si>
@@ -412,6 +409,9 @@
   </si>
   <si>
     <t>Hierarchical mixed models</t>
+  </si>
+  <si>
+    <t>Smith et al.</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,13 +897,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
@@ -918,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>10</v>
@@ -927,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>12</v>
@@ -960,16 +960,16 @@
         <v>20</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>22</v>
@@ -984,13 +984,13 @@
         <v>25</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AK1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AM1" s="2" t="s">
         <v>27</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="2" spans="1:56" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4">
         <v>2013</v>
@@ -1070,34 +1070,34 @@
         <v>49</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M2" s="4">
         <v>45</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>51</v>
@@ -1106,10 +1106,10 @@
         <v>52</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>53</v>
@@ -1127,10 +1127,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC2" s="6">
         <v>8</v>
@@ -1145,7 +1145,7 @@
         <v>49</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH2" s="6" t="s">
         <v>54</v>
@@ -1154,19 +1154,19 @@
         <v>1</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AL2" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO2" s="6" t="s">
         <v>57</v>
@@ -1178,28 +1178,28 @@
         <v>59</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AU2" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW2" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ2" s="6" t="s">
         <v>62</v>
@@ -1214,12 +1214,12 @@
         <v>45</v>
       </c>
       <c r="BD2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="B3" s="4">
         <v>2021</v>
@@ -1240,34 +1240,34 @@
         <v>49</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" s="4">
         <v>45</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>51</v>
@@ -1276,10 +1276,10 @@
         <v>52</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>53</v>
@@ -1297,10 +1297,10 @@
         <v>1</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC3" s="6">
         <v>8</v>
@@ -1315,7 +1315,7 @@
         <v>49</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" s="6" t="s">
         <v>54</v>
@@ -1324,19 +1324,19 @@
         <v>1</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AL3" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO3" s="6" t="s">
         <v>57</v>
@@ -1348,28 +1348,28 @@
         <v>59</v>
       </c>
       <c r="AR3" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AU3" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AV3" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW3" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ3" s="6" t="s">
         <v>62</v>
@@ -1384,12 +1384,12 @@
         <v>45</v>
       </c>
       <c r="BD3" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4">
         <v>2021</v>
@@ -1410,34 +1410,34 @@
         <v>49</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M4" s="4">
         <v>45</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>51</v>
@@ -1446,10 +1446,10 @@
         <v>52</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>53</v>
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC4" s="6">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         <v>49</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>54</v>
@@ -1494,19 +1494,19 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL4" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO4" s="6" t="s">
         <v>57</v>
@@ -1518,28 +1518,28 @@
         <v>59</v>
       </c>
       <c r="AR4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS4" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AU4" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW4" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AX4" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY4" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ4" s="6" t="s">
         <v>62</v>
@@ -1554,12 +1554,12 @@
         <v>45</v>
       </c>
       <c r="BD4" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="4">
         <v>2013</v>
@@ -1580,34 +1580,34 @@
         <v>49</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M5" s="4">
         <v>45</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>51</v>
@@ -1616,10 +1616,10 @@
         <v>52</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V5" s="6" t="s">
         <v>53</v>
@@ -1637,10 +1637,10 @@
         <v>1</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC5" s="6">
         <v>8</v>
@@ -1655,7 +1655,7 @@
         <v>49</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>54</v>
@@ -1664,10 +1664,10 @@
         <v>1</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AL5" s="6" t="s">
         <v>55</v>
@@ -1676,7 +1676,7 @@
         <v>56</v>
       </c>
       <c r="AN5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AO5" s="6" t="s">
         <v>57</v>
@@ -1688,28 +1688,28 @@
         <v>59</v>
       </c>
       <c r="AR5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS5" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AT5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AU5" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW5" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AX5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ5" s="6" t="s">
         <v>62</v>
@@ -1724,12 +1724,12 @@
         <v>45</v>
       </c>
       <c r="BD5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:56" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="B6" s="4">
         <v>2021</v>
@@ -1750,34 +1750,34 @@
         <v>49</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M6" s="4">
         <v>45</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>51</v>
@@ -1786,10 +1786,10 @@
         <v>52</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V6" s="6" t="s">
         <v>53</v>
@@ -1807,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC6" s="6">
         <v>8</v>
@@ -1825,7 +1825,7 @@
         <v>49</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH6" s="6" t="s">
         <v>54</v>
@@ -1837,7 +1837,7 @@
         <v>60</v>
       </c>
       <c r="AK6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AL6" s="6" t="s">
         <v>55</v>
@@ -1846,7 +1846,7 @@
         <v>56</v>
       </c>
       <c r="AN6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AO6" s="6" t="s">
         <v>57</v>
@@ -1858,34 +1858,34 @@
         <v>59</v>
       </c>
       <c r="AR6" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AT6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AU6" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW6" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AX6" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY6" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ6" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BA6" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BB6" s="6" t="s">
         <v>45</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="7" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4">
         <v>2013</v>
@@ -1920,34 +1920,34 @@
         <v>49</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M7" s="4">
         <v>45</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>51</v>
@@ -1956,10 +1956,10 @@
         <v>52</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V7" s="6" t="s">
         <v>53</v>
@@ -1977,10 +1977,10 @@
         <v>1</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC7" s="6">
         <v>8</v>
@@ -1995,7 +1995,7 @@
         <v>49</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH7" s="6" t="s">
         <v>54</v>
@@ -2004,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL7" s="6" t="s">
         <v>55</v>
@@ -2016,7 +2016,7 @@
         <v>56</v>
       </c>
       <c r="AN7" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AO7" s="6" t="s">
         <v>57</v>
@@ -2028,28 +2028,28 @@
         <v>59</v>
       </c>
       <c r="AR7" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS7" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AT7" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AU7" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW7" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AX7" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY7" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ7" s="6" t="s">
         <v>62</v>
@@ -2064,12 +2064,12 @@
         <v>45</v>
       </c>
       <c r="BD7" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="4">
         <v>2013</v>
@@ -2090,34 +2090,34 @@
         <v>49</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8" s="4">
         <v>45</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>51</v>
@@ -2126,10 +2126,10 @@
         <v>52</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V8" s="6" t="s">
         <v>53</v>
@@ -2147,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC8" s="6">
         <v>8</v>
@@ -2165,7 +2165,7 @@
         <v>49</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH8" s="6" t="s">
         <v>54</v>
@@ -2174,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL8" s="6" t="s">
         <v>55</v>
@@ -2186,7 +2186,7 @@
         <v>56</v>
       </c>
       <c r="AN8" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AO8" s="6" t="s">
         <v>57</v>
@@ -2198,28 +2198,28 @@
         <v>59</v>
       </c>
       <c r="AR8" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS8" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AT8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU8" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AV8" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW8" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AX8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ8" s="6" t="s">
         <v>62</v>
@@ -2234,12 +2234,12 @@
         <v>45</v>
       </c>
       <c r="BD8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <v>2013</v>
@@ -2260,34 +2260,34 @@
         <v>49</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M9" s="4">
         <v>45</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>51</v>
@@ -2296,10 +2296,10 @@
         <v>52</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V9" s="6" t="s">
         <v>53</v>
@@ -2317,10 +2317,10 @@
         <v>1</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC9" s="6">
         <v>8</v>
@@ -2335,7 +2335,7 @@
         <v>49</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH9" s="6" t="s">
         <v>54</v>
@@ -2344,10 +2344,10 @@
         <v>1</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL9" s="6" t="s">
         <v>55</v>
@@ -2356,7 +2356,7 @@
         <v>56</v>
       </c>
       <c r="AN9" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO9" s="6" t="s">
         <v>57</v>
@@ -2368,28 +2368,28 @@
         <v>59</v>
       </c>
       <c r="AR9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS9" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AT9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU9" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW9" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AX9" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY9" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ9" s="6" t="s">
         <v>62</v>
@@ -2404,12 +2404,12 @@
         <v>45</v>
       </c>
       <c r="BD9" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4">
         <v>2013</v>
@@ -2430,34 +2430,34 @@
         <v>49</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="4">
         <v>45</v>
       </c>
       <c r="N10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>51</v>
@@ -2466,7 +2466,7 @@
         <v>52</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U10" s="6" t="s">
         <v>63</v>
@@ -2487,10 +2487,10 @@
         <v>1</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC10" s="6">
         <v>8</v>
@@ -2505,7 +2505,7 @@
         <v>49</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH10" s="6" t="s">
         <v>54</v>
@@ -2514,19 +2514,19 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL10" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AM10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AN10" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AO10" s="6" t="s">
         <v>57</v>
@@ -2538,34 +2538,34 @@
         <v>59</v>
       </c>
       <c r="AR10" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AS10" s="6" t="s">
         <v>63</v>
       </c>
       <c r="AT10" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AU10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AW10" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AX10" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AY10" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ10" s="6" t="s">
         <v>62</v>
       </c>
       <c r="BA10" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BB10" s="6" t="s">
         <v>45</v>
@@ -2574,7 +2574,7 @@
         <v>45</v>
       </c>
       <c r="BD10" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
